--- a/_Lang_Korean/Lang/KR/Game/Collectible.xlsx
+++ b/_Lang_Korean/Lang/KR/Game/Collectible.xlsx
@@ -47,7 +47,7 @@
     <t xml:space="preserve">leaf</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.18</t>
+    <t xml:space="preserve">EA 23.23 fix 1</t>
   </si>
   <si>
     <t xml:space="preserve">junk</t>

--- a/_Lang_Korean/Lang/KR/Game/Collectible.xlsx
+++ b/_Lang_Korean/Lang/KR/Game/Collectible.xlsx
@@ -47,7 +47,7 @@
     <t xml:space="preserve">leaf</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.24 fix 4</t>
+    <t xml:space="preserve">EA 23.25</t>
   </si>
   <si>
     <t xml:space="preserve">junk</t>

--- a/_Lang_Korean/Lang/KR/Game/Collectible.xlsx
+++ b/_Lang_Korean/Lang/KR/Game/Collectible.xlsx
@@ -47,7 +47,7 @@
     <t xml:space="preserve">leaf</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.25</t>
+    <t xml:space="preserve">EA 23.26 fix 2</t>
   </si>
   <si>
     <t xml:space="preserve">junk</t>
